--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -61,12 +61,6 @@
     <t xml:space="preserve">Crackling Drake</t>
   </si>
   <si>
-    <t xml:space="preserve">Expressive Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strixhaven: School of Mages</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fiery Impulse</t>
   </si>
   <si>
@@ -101,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shadows over Innistrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for Azcanta: Azcanta the Sunken Ruin</t>
   </si>
   <si>
     <t xml:space="preserve">Shivan Reef</t>
@@ -164,10 +161,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-41A];[RED]\-#,##0.00\ [$€-41A]"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +186,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,12 +237,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,15 +271,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.93"/>
   </cols>
   <sheetData>
@@ -297,15 +310,15 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>6.26</v>
+      <c r="D2" s="2" t="n">
+        <v>6.35</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <f aca="false">D2*E2</f>
-        <v>12.52</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -318,15 +331,15 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.32</v>
+      <c r="D3" s="2" t="n">
+        <v>0.34</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <f aca="false">D3*E3</f>
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -339,15 +352,15 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1.62</v>
+      <c r="D4" s="2" t="n">
+        <v>1.54</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false">D4*E4</f>
-        <v>6.48</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -360,15 +373,15 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.14</v>
+      <c r="D5" s="2" t="n">
+        <v>0.15</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <f aca="false">D5*E5</f>
-        <v>0.56</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -381,15 +394,15 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>4.29</v>
+      <c r="D6" s="2" t="n">
+        <v>0.21</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <f aca="false">D6*E6</f>
-        <v>8.58</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -402,15 +415,15 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.22</v>
+      <c r="D7" s="2" t="n">
+        <v>0.08</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">D7*E7</f>
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -423,15 +436,15 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.08</v>
+      <c r="D8" s="2" t="n">
+        <v>0.31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <f aca="false">D8*E8</f>
-        <v>0.16</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -444,15 +457,15 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0.3</v>
+      <c r="D9" s="2" t="n">
+        <v>0.24</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false">D9*E9</f>
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -465,15 +478,15 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0.25</v>
+      <c r="D10" s="2" t="n">
+        <v>0.08</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <f aca="false">D10*E10</f>
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -486,62 +499,62 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0.08</v>
+      <c r="D11" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <f aca="false">D11*E11</f>
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.25</v>
+      <c r="D12" s="2" t="n">
+        <v>4.16</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <f aca="false">D12*E12</f>
-        <v>0.75</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.15</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <f aca="false">D13*E13</f>
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -549,150 +562,150 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>13.53</v>
+      <c r="D14" s="2" t="n">
+        <v>13.69</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <f aca="false">D14*E14</f>
-        <v>13.53</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>3.2</v>
+      <c r="D15" s="2" t="n">
+        <v>3.33</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <f aca="false">D15*E15</f>
-        <v>6.4</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0.34</v>
+      <c r="D16" s="2" t="n">
+        <v>0.33</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <f aca="false">D16*E16</f>
-        <v>1.36</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>8.68</v>
+      <c r="D17" s="2" t="n">
+        <v>8.27</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <f aca="false">D17*E17</f>
-        <v>17.36</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0.19</v>
+      <c r="D18" s="2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <f aca="false">D18*E18</f>
-        <v>0.76</v>
-      </c>
-      <c r="G18" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <f aca="false">SUM(F2:F18)</f>
-        <v>76.75</v>
+        <v>119.17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0.3</v>
+      <c r="D19" s="2" t="n">
+        <v>0.28</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <f aca="false">D19*E19</f>
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0.19</v>
+      <c r="D20" s="2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <f aca="false">D20*E20</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -700,90 +713,91 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0.08</v>
+      <c r="D21" s="2" t="n">
+        <v>0.09</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <f aca="false">D21*E21</f>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>1.86</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <f aca="false">D22*E22</f>
         <v>7.44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1.25</v>
+      <c r="D23" s="2" t="n">
+        <v>1.21</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <f aca="false">D23*E23</f>
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0.42</v>
+      <c r="D24" s="2" t="n">
+        <v>0.38</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <f aca="false">D24*E24</f>
-        <v>0.84</v>
-      </c>
-      <c r="G24" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <f aca="false">SUM(F19:F24)</f>
-        <v>13.28</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <f aca="false">SUM(F2:F24)</f>
-        <v>90.03</v>
-      </c>
-    </row>
+        <v>132.22</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>6.21</v>
+        <v>5.27</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>4</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>4</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>2</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>3</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>3</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>4</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>3</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>3.95</v>
+        <v>4.51</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>3</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13.95</v>
+        <v>13.2</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.17</v>
+        <v>2.63</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>4</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>7.96</v>
+        <v>7.21</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>4</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>3</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>3</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>3</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>5.27</v>
+        <v>5.11</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>4</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>4</v>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>2</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>3</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>3</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>3</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13.2</v>
+        <v>13.09</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>4</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>7.21</v>
+        <v>6.78</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>4</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>3</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>4</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>4</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>2</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>3</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>4</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>3</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>3</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13.09</v>
+        <v>13.5</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>4</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>6.78</v>
+        <v>6.01</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>4</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>3</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>3</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>5.11</v>
+        <v>4.86</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>4</v>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>2</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>2</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>3</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>3</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>4</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>4.63</v>
+        <v>4.04</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13.5</v>
+        <v>13.98</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>4</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>6.01</v>
+        <v>5.18</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>4</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>3</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4.71</v>
+        <v>4.42</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>2</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>3</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>3</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.91</v>
+        <v>4.44</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>3</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14.01</v>
+        <v>14.22</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>2</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>2</v>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.82</v>
+        <v>4.41</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>4</v>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>3</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -427,18 +427,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col width="40.85546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="25" customWidth="1" style="2" min="2" max="2"/>
-    <col width="11.5703125" customWidth="1" style="2" min="3" max="3"/>
-    <col width="11.5703125" customWidth="1" style="2" min="4" max="16384"/>
+    <col width="40.140625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.5703125" customWidth="1" style="2" min="3" max="4"/>
+    <col width="11.5703125" customWidth="1" style="2" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4.25</v>
+        <v>4.57</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -579,12 +579,12 @@
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Fiery Impulse</t>
+          <t>Hall of Storm Giants</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Magic Origins</t>
+          <t>Adventures in the Forgotten Realms: Extras</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.25</v>
+        <v>5.36</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <f>D6*E6</f>
@@ -606,12 +606,12 @@
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Izzet Charm</t>
+          <t>Fiery Impulse</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Return to Ravnica</t>
+          <t>Magic Origins</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -633,12 +633,12 @@
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Lightning Axe</t>
+          <t>Izzet Charm</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Time Spiral Remastered</t>
+          <t>Return to Ravnica</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3</v>
@@ -660,12 +660,12 @@
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Opt</t>
+          <t>Lightning Axe</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Throne of Eldraine</t>
+          <t>Time Spiral Remastered</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <f>D9*E9</f>
@@ -687,12 +687,12 @@
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Pieces of the Puzzle</t>
+          <t>Opt</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Shadows over Innistrad</t>
+          <t>Throne of Eldraine</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4</v>
@@ -712,14 +712,14 @@
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Search for Azcanta: Azcanta the Sunken Ruin</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Pieces of the Puzzle</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Ixalan</t>
+          <t>Shadows over Innistrad</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4.34</v>
+        <v>0.23</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
         <f>D11*E11</f>
@@ -739,14 +739,14 @@
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Shivan Reef</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Search for Azcanta: Azcanta the Sunken Ruin</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Dominaria United</t>
+          <t>Ixalan</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.83</v>
+        <v>4.41</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f>D12*E12</f>
@@ -768,12 +768,12 @@
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Steam Vents</t>
+          <t>Shivan Reef</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Guilds of Ravnica</t>
+          <t>Dominaria United</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14.22</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <f>D13*E13</f>
@@ -795,12 +795,12 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Sulfur Falls</t>
+          <t>Steam Vents</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Dominaria</t>
+          <t>Guilds of Ravnica</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.76</v>
+        <v>14.26</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <f>D14*E14</f>
@@ -822,12 +822,12 @@
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Temple of Epiphany</t>
+          <t>Sulfur Falls</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Core Set 2021</t>
+          <t>Dominaria</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <f>D15*E15</f>
@@ -849,12 +849,12 @@
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Thing in the Ice: Awoken Horror</t>
+          <t>Temple of Epiphany</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Shadows over Innistrad</t>
+          <t>Core Set 2021</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.47</v>
+        <v>0.24</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <f>D16*E16</f>
@@ -876,12 +876,12 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Treasure Cruise</t>
+          <t>Thing in the Ice: Awoken Horror</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Khans of Tarkir</t>
+          <t>Shadows over Innistrad</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -890,29 +890,25 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.16</v>
+        <v>4.45</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <f>D17*E17</f>
         <v/>
       </c>
-      <c r="G17" s="3">
-        <f>SUM(F2:F17)</f>
-        <v/>
-      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Abrade</t>
+          <t>Treasure Cruise</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Hour of Devastation</t>
+          <t>Khans of Tarkir</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -921,25 +917,29 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <f>D18*E18</f>
         <v/>
       </c>
+      <c r="G18" s="3">
+        <f>SUM(F2:F18)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Flame-Blessed Bolt</t>
+          <t>Abrade</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Innistrad: Crimson Vow</t>
+          <t>Hour of Devastation</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>2</v>
@@ -961,12 +961,12 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Invasive Surgery</t>
+          <t>Flame-Blessed Bolt</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Shadows over Innistrad</t>
+          <t>Innistrad: Crimson Vow</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <f>D20*E20</f>
@@ -988,12 +988,12 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Lava Coil</t>
+          <t>Invasive Surgery</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Guilds of Ravnica</t>
+          <t>Shadows over Innistrad</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f>D21*E21</f>
@@ -1015,12 +1015,12 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Mystical Dispute</t>
+          <t>Lava Coil</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Throne of Eldraine</t>
+          <t>Guilds of Ravnica</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <f>D22*E22</f>
@@ -1042,12 +1042,12 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Narset, Parter of Veils</t>
+          <t>Mystical Dispute</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>War of the Spark</t>
+          <t>Throne of Eldraine</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <f>D23*E23</f>
@@ -1069,12 +1069,12 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Sweltering Suns</t>
+          <t>Narset, Parter of Veils</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Amonkhet</t>
+          <t>War of the Spark</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.28</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -1092,14 +1092,41 @@
         <f>D24*E24</f>
         <v/>
       </c>
-      <c r="G24" s="3">
-        <f>SUM(F18:F24)</f>
-        <v/>
-      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Sweltering Suns</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Amonkhet</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="F25" s="3">
-        <f>SUM(F2:F24)</f>
+        <f>D25*E25</f>
+        <v/>
+      </c>
+      <c r="G25" s="3">
+        <f>SUM(F19:F25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="F26" s="3">
+        <f>SUM(F2:F25)</f>
         <v/>
       </c>
     </row>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>5.36</v>
+        <v>4.66</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>3</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4</v>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>4</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4.41</v>
+        <v>4.01</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14.26</v>
+        <v>14.45</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>2</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.45</v>
+        <v>4.28</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>4</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>2</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>4</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4.66</v>
+        <v>4.91</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>3</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4</v>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>4</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14.45</v>
+        <v>14.27</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>2</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.28</v>
+        <v>4.14</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>4</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>2</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4.35</v>
+        <v>3.83</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>4</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4.91</v>
+        <v>5.12</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>3</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>4</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.97</v>
+        <v>4.27</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14.27</v>
+        <v>14.53</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>2</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.14</v>
+        <v>4.23</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>4</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>2</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>4</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>2</v>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\o\git-repos\mtg-card-price-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D07A72-7C15-486C-9410-966FEED1A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901277AD-ED45-4415-A9D4-F96D7BF17980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Khans of Tarkir</t>
   </si>
   <si>
-    <t>Abrade</t>
-  </si>
-  <si>
-    <t>Hour of Devastation</t>
-  </si>
-  <si>
     <t>Flame-Blessed Bolt</t>
   </si>
   <si>
@@ -174,6 +168,15 @@
   </si>
   <si>
     <t>Amonkhet</t>
+  </si>
+  <si>
+    <t>Negate</t>
+  </si>
+  <si>
+    <t>Magic 2013</t>
+  </si>
+  <si>
+    <t>Magic 2014</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F25" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F26" si="0">D2*E2</f>
         <v>12.72</v>
       </c>
     </row>
@@ -932,14 +935,14 @@
         <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,104 +950,104 @@
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="E23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>1.56</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,30 +1055,51 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="G25" s="3">
-        <f>SUM(F19:F25)</f>
-        <v>5.2200000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="3">
-        <f>SUM(F2:F25)</f>
-        <v>87.440000000000012</v>
+      <c r="G26" s="3">
+        <f>SUM(F19:F26)</f>
+        <v>5.0600000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <f>SUM(F2:F26)</f>
+        <v>87.28</v>
       </c>
     </row>
   </sheetData>

--- a/izzetChicken.xlsx
+++ b/izzetChicken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\o\git-repos\mtg-card-price-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901277AD-ED45-4415-A9D4-F96D7BF17980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F85EE3-05F1-41A1-BA82-BD75176DEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Magic 2014</t>
+  </si>
+  <si>
+    <t>Spikefield Hazard: Spikefield Cave</t>
+  </si>
+  <si>
+    <t>Zendikar Rising</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,14 +580,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="E2" s="2">
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F26" si="0">D2*E2</f>
-        <v>12.72</v>
+        <f t="shared" ref="F2:F27" si="0">D2*E2</f>
+        <v>11.88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -595,14 +601,14 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,14 +622,14 @@
         <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>2.88</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,14 +664,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>4.79</v>
+        <v>4.46</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>4.79</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,14 +685,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,14 +706,14 @@
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.57000000000000006</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,14 +727,14 @@
         <v>7</v>
       </c>
       <c r="D9" s="3">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,14 +748,14 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,14 +790,14 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2.78</v>
+        <v>3.14</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>2.78</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,249 +811,249 @@
         <v>7</v>
       </c>
       <c r="D13" s="3">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>14.88</v>
+        <v>0.37</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>29.76</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>1.8</v>
+        <v>13.84</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="3">
-        <v>3.62</v>
+        <v>0.27</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>14.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>0.14000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="G18" s="3">
-        <f>SUM(F2:F18)</f>
-        <v>82.22</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.48</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SUM(F2:F19)</f>
+        <v>80.290000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3">
-        <v>0.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="E22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>2.16</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,51 +1061,72 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G26" s="3">
-        <f>SUM(F19:F26)</f>
-        <v>5.0600000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="3">
-        <f>SUM(F2:F26)</f>
-        <v>87.28</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="3">
+        <f>SUM(F20:F27)</f>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <f>SUM(F2:F27)</f>
+        <v>85.080000000000013</v>
       </c>
     </row>
   </sheetData>
